--- a/MacrosMap.xlsx
+++ b/MacrosMap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Macro Name</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>define_appendix_table_style()</t>
+  </si>
+  <si>
+    <t>alphabetix_table()</t>
+  </si>
+  <si>
+    <t>Defines and formats the tables that are used as appendix tables</t>
   </si>
 </sst>
 </file>
@@ -539,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
@@ -827,9 +833,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
